--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E302066-F576-5745-8E24-15C55D1CE1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>libraryDate</t>
   </si>
@@ -40,9 +46,6 @@
     <t>12.10.18</t>
   </si>
   <si>
-    <t>Retrofitted_3357</t>
-  </si>
-  <si>
     <t>sequence/run_3357_samples/3357-Brent_crypto21-1_GTAC_1_SIC_Index2_06_TGAGGTTATC_GACCTTGT_S17_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -119,13 +122,19 @@
   </si>
   <si>
     <t>sequence/run_3357_samples/3357-Brent_crypto22-20_GTAC_26_SIC_Index_07_TCAACTG_GAGTTGGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,12 +557,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -516,18 +571,18 @@
         <v>3357</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -536,18 +591,18 @@
         <v>3357</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -556,18 +611,18 @@
         <v>3357</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -576,18 +631,18 @@
         <v>3357</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -596,18 +651,18 @@
         <v>3357</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -616,38 +671,38 @@
         <v>3357</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3357</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>3357</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -656,18 +711,18 @@
         <v>3357</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -676,18 +731,18 @@
         <v>3357</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -696,18 +751,18 @@
         <v>3357</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -716,18 +771,18 @@
         <v>3357</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -736,18 +791,18 @@
         <v>3357</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -756,18 +811,18 @@
         <v>3357</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -776,18 +831,18 @@
         <v>3357</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -796,18 +851,18 @@
         <v>3357</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -816,18 +871,18 @@
         <v>3357</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -836,18 +891,18 @@
         <v>3357</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -856,18 +911,18 @@
         <v>3357</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -876,18 +931,18 @@
         <v>3357</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -896,18 +951,18 @@
         <v>3357</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -916,18 +971,18 @@
         <v>3357</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -936,18 +991,18 @@
         <v>3357</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -956,18 +1011,18 @@
         <v>3357</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -976,18 +1031,18 @@
         <v>3357</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -996,18 +1051,18 @@
         <v>3357</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1016,18 +1071,18 @@
         <v>3357</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1036,18 +1091,18 @@
         <v>3357</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1056,10 +1111,10 @@
         <v>3357</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E302066-F576-5745-8E24-15C55D1CE1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD853FA0-04A5-0B4F-A40F-8C736964EBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="540" windowWidth="33360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>libraryDate</t>
   </si>
@@ -128,13 +128,88 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-16_GTAC_22_SIC_Index_07_AAATGCA_GAGTTGGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-17_GTAC_17_SIC_Index2_07_ACTGTCGATC_GAGTTGGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-17_GTAC_23_SIC_Index_07_ACGCGGG_GAGTTGGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-18_GTAC_18_SIC_Index2_07_GTATTTGATC_GAGTTGGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-18_GTAC_24_SIC_Index_07_GGAGTCC_GAGTTGGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-19_GTAC_19_SIC_Index2_07_GAGTACGATC_GAGTTGGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-19_GTAC_25_SIC_Index_07_CGTCGCT_GAGTTGGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-20_GTAC_20_SIC_Index2_07_ACAGATAATC_GAGTTGGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-20_GTAC_26_SIC_Index_07_TCAACTG_GAGTTGGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-3_GTAC_3_SIC_Index2_07_ATGACAGATC_GAGTTGGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-4_GTAC_4_SIC_Index2_07_CACCTCCATC_GAGTTGGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-5_GTAC_5_SIC_Index2_07_ATCGAGCATC_GAGTTGGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-6_GTAC_6_SIC_Index2_07_TACTCTAATC_GAGTTGGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-8_GTAC_8_SIC_Index2_07_CTTGGAAATC_GAGTTGGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-15_GTAC_21_SIC_Index_07_CTCAATG_Gs_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-16_GTAC_16_SIC_Index2_07_CGGTGGCATC_Gs_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-16_GTAC_22_SIC_Index_07_AAATGCA_Gs_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-17_GTAC_17_SIC_Index2_07_ACTGTCGATC_Gs_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-17_GTAC_23_SIC_Index_07_ACGCGGG_Gs_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-18_GTAC_18_SIC_Index2_07_GTATTTGATC_Gs_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-18_GTAC_24_SIC_Index_07_GGAGTCC_Gs_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-19_GTAC_19_SIC_Index2_07_GAGTACGATC_Gs_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-19_GTAC_25_SIC_Index_07_CGTCGCT_Gs_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-20_GTAC_20_SIC_Index2_07_ACAGATAATC_Gs_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3357-Brent_crypto22-20_GTAC_26_SIC_Index_07_TCAACTG_Gs_S59_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +225,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,11 +273,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,15 +620,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="99.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -565,7 +663,7 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3357</v>
@@ -573,11 +671,11 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -585,7 +683,7 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3357</v>
@@ -593,11 +691,11 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -605,488 +703,562 @@
         <v>35</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>3357</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3357</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3357</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>3357</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D7">
+        <v>3357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3357</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="V7">
+        <v>3357</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>3357</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="V8">
+        <v>3357</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
+    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="R12">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>3357</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>3357</v>
+      </c>
+      <c r="W13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>9</v>
+      </c>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15">
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <v>3357</v>
+      </c>
+      <c r="W15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="V16">
+        <v>3357</v>
+      </c>
+      <c r="W16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>3357</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="S17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17">
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <v>3357</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>3357</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <v>12</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18">
+        <v>15</v>
+      </c>
+      <c r="V18">
+        <v>3357</v>
+      </c>
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>3357</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19">
+        <v>13</v>
+      </c>
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19">
+        <v>16</v>
+      </c>
+      <c r="V19">
+        <v>3357</v>
+      </c>
+      <c r="W19" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>3357</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <v>14</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>3357</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21">
+        <v>15</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>3357</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>3357</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>3357</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>3357</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>3357</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>3357</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="V22">
+        <v>3357</v>
+      </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>3357</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>3357</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>3357</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>3357</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>3357</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3357</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>3357</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>3357</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>3357</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>3357</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>3357</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>3357</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>3357</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>3357</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>3357</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>3357</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D27">
+        <v>3357</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>3357</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>3357</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>3357</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
       <c r="D28">
         <v>3357</v>
       </c>
@@ -1094,27 +1266,235 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>3357</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
         <v>33</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="S30" s="2"/>
+    </row>
+    <row r="36" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>23047109</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1009652</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6826831</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9988607</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5126885</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10245081</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3">
+        <v>34963345</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+      <c r="D43" s="3">
+        <v>19432</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3165187</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2646384</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C46" s="2"/>
+      <c r="D46" s="3">
+        <v>16827</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3">
+        <v>21956</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3">
+        <v>13724</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="3">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3">
+        <v>34964</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+      <c r="D51" s="3">
+        <v>8104600</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4100482</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+      <c r="D53" s="3">
+        <v>3384035</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4594984</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3041105</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1314795</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="3">
+        <v>874699</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1311078</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="3">
+        <v>626943</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="3">
+        <v>332282</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3">
+        <v>366713</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3">
+        <v>347404</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="3">
+        <v>398001</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="3">
+        <v>125657</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E302066-F576-5745-8E24-15C55D1CE1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB3506-2153-8743-82DB-D8AC977867B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>libraryDate</t>
   </si>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>3357</v>
@@ -574,7 +574,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>3357</v>
@@ -594,18 +594,18 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>3357</v>
@@ -614,7 +614,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>35</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>3357</v>
@@ -634,7 +634,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>3357</v>
@@ -654,18 +654,18 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>3357</v>
@@ -674,7 +674,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>3357</v>
@@ -694,7 +694,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3357</v>
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>3357</v>
@@ -734,18 +734,18 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>3357</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>3357</v>
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>3357</v>
@@ -794,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>3357</v>
@@ -814,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>3357</v>
@@ -834,7 +834,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>3357</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>3357</v>
@@ -874,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>3357</v>
@@ -894,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>3357</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>3357</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>3357</v>
@@ -954,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>3357</v>
@@ -974,7 +974,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>3357</v>
@@ -994,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>3357</v>
@@ -1014,7 +1014,7 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>3357</v>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>3357</v>
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>3357</v>
@@ -1074,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>3357</v>
@@ -1094,26 +1094,6 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>3357</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
         <v>33</v>
       </c>
     </row>

--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0878B6C8-2EF9-834E-B38F-73C9EADD0048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD65D6-578A-9846-8FA8-CB89CBF0CDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25520" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>libraryDate</t>
   </si>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A2:XFD2 A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,13 +639,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>3357</v>
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>3357</v>
@@ -674,7 +674,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>3357</v>
@@ -694,7 +694,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>3357</v>
@@ -714,18 +714,18 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>3357</v>
@@ -734,7 +734,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>3357</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>3357</v>
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>3357</v>
@@ -794,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>3357</v>
@@ -814,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>3357</v>
@@ -834,7 +834,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>3357</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>3357</v>
@@ -874,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>3357</v>
@@ -894,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>3357</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>3357</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>3357</v>
@@ -954,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>3357</v>
@@ -974,7 +974,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>3357</v>
@@ -994,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>3357</v>
@@ -1014,7 +1014,7 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>3357</v>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>3357</v>
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>3357</v>
@@ -1074,26 +1074,6 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28">
-        <v>3357</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
         <v>33</v>
       </c>
     </row>

--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD65D6-578A-9846-8FA8-CB89CBF0CDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59703A00-987B-0742-B330-F1FBABA8ADBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25520" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>fastqFileName</t>
   </si>
   <si>
-    <t>12.5.18</t>
-  </si>
-  <si>
     <t>12.10.18</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>12.05.18</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,10 +559,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -571,18 +571,18 @@
         <v>3357</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -591,18 +591,18 @@
         <v>3357</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -611,18 +611,18 @@
         <v>3357</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -631,18 +631,18 @@
         <v>3357</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -651,18 +651,18 @@
         <v>3357</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -671,18 +671,18 @@
         <v>3357</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -691,18 +691,18 @@
         <v>3357</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -711,18 +711,18 @@
         <v>3357</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -731,18 +731,18 @@
         <v>3357</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -751,18 +751,18 @@
         <v>3357</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -771,18 +771,18 @@
         <v>3357</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -791,18 +791,18 @@
         <v>3357</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -811,18 +811,18 @@
         <v>3357</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -831,18 +831,18 @@
         <v>3357</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -851,18 +851,18 @@
         <v>3357</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -871,18 +871,18 @@
         <v>3357</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>19</v>
@@ -891,18 +891,18 @@
         <v>3357</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -911,18 +911,18 @@
         <v>3357</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -931,18 +931,18 @@
         <v>3357</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>22</v>
@@ -951,18 +951,18 @@
         <v>3357</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>23</v>
@@ -971,18 +971,18 @@
         <v>3357</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -991,18 +991,18 @@
         <v>3357</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -1011,18 +1011,18 @@
         <v>3357</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>26</v>
@@ -1031,18 +1031,18 @@
         <v>3357</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>27</v>
@@ -1051,18 +1051,18 @@
         <v>3357</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>28</v>
@@ -1071,10 +1071,10 @@
         <v>3357</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">

--- a/fastqFiles/fastq_3357.xlsx
+++ b/fastqFiles/fastq_3357.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">3357-Brent_crypto21-2_GTAC_2_SIC_Index2_06_GCTTAGAATC_GACCTTGT_S18_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3357-Brent_crypto21-4_GTAC_4_SIC_Index2_06_CACCTCCATC_GACCTTGT_S20_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">3357-Brent_crypto22-19_GTAC_25_SIC_Index_07_CGTCGCT_GAGTTGGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32,128]</t>
   </si>
   <si>
     <t xml:space="preserve">3357-Brent_crypto22-20_GTAC_26_SIC_Index_07_TCAACTG_GAGTTGGT_S48_R1_001.fastq.gz</t>
@@ -237,7 +243,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X8" activeCellId="0" sqref="X8"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,11 +302,11 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -317,18 +323,18 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -343,18 +349,18 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -369,16 +375,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -395,16 +401,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -421,16 +427,16 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -447,16 +453,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -473,18 +479,18 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -499,18 +505,18 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
@@ -525,18 +531,18 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>10</v>
@@ -551,18 +557,18 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>10</v>
@@ -577,18 +583,18 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>10</v>
@@ -603,18 +609,18 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>10</v>
@@ -629,18 +635,18 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>10</v>
@@ -655,18 +661,18 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>10</v>
@@ -681,18 +687,18 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
@@ -707,18 +713,18 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
@@ -733,18 +739,18 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
@@ -759,18 +765,18 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>10</v>
@@ -785,18 +791,18 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>10</v>
@@ -811,18 +817,18 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>10</v>
@@ -837,18 +843,18 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>10</v>
@@ -863,18 +869,18 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>10</v>
@@ -889,18 +895,18 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>128</v>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>10</v>
@@ -915,18 +921,18 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
@@ -941,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>128</v>
+      <c r="I27" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
